--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf5-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf5-Fgfr4.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H2">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N2">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q2">
-        <v>0.06517846787899999</v>
+        <v>0.107136097278</v>
       </c>
       <c r="R2">
-        <v>0.586606210911</v>
+        <v>0.964224875502</v>
       </c>
       <c r="S2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="T2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H3">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q3">
-        <v>0.045215590512</v>
+        <v>0.040296819152</v>
       </c>
       <c r="R3">
-        <v>0.406940314608</v>
+        <v>0.362671372368</v>
       </c>
       <c r="S3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="T3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H4">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N4">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q4">
-        <v>3.165336772522</v>
+        <v>7.821050804691667</v>
       </c>
       <c r="R4">
-        <v>28.488030952698</v>
+        <v>70.38945724222501</v>
       </c>
       <c r="S4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="T4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.152319</v>
+        <v>0.135749</v>
       </c>
       <c r="H5">
-        <v>0.4569569999999999</v>
+        <v>0.407247</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N5">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q5">
-        <v>0.011060238001</v>
+        <v>0.01524927341566667</v>
       </c>
       <c r="R5">
-        <v>0.099542142009</v>
+        <v>0.137243460741</v>
       </c>
       <c r="S5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="T5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
     </row>
   </sheetData>
